--- a/backend/result/보배드림_result.xlsx
+++ b/backend/result/보배드림_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,126 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DF</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>윤석열</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>노벨</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>댓글</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>무서움</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>권성동</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>연기대상</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>특검</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>올해</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>토론회</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>최우수상</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>토론</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>택시</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>초능력</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>초고속</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>이쁜처자</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>치매</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/result/보배드림_result.xlsx
+++ b/backend/result/보배드림_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>노벨</t>
+          <t>올해안</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>댓글</t>
+          <t>있을까요</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>무서움</t>
+          <t>진급</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,61 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>올해</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>최우수상</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>치매</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/backend/result/보배드림_result.xlsx
+++ b/backend/result/보배드림_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,25 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>index</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DF</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>diff</t>
         </is>
@@ -454,17 +464,23 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>올해안</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>윤석열</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>.</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5위 상승</t>
         </is>
       </c>
     </row>
@@ -472,35 +488,23 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>있을까요</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>진급</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>태세전환</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>.</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
